--- a/municipal/ENG/Social Statistic/Socially Vulnerable/Racha-Lechlhumi and Kvemo Svaneti/Oni.xlsx
+++ b/municipal/ENG/Social Statistic/Socially Vulnerable/Racha-Lechlhumi and Kvemo Svaneti/Oni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\სოციალურად დაუცველი პირების წილი\რაჭა-ლეჩხუმი და ქვემო სვანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Socially Vulnerable\Racha-Lechlhumi and Kvemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Share of persons receiving social package (%) in the population in Oni</t>
-  </si>
   <si>
     <t xml:space="preserve">(at the end of the year, %)  </t>
   </si>
@@ -53,6 +50,9 @@
       </rPr>
       <t xml:space="preserve"> According to the Law of Georgia “State budget” starting from September 1st, 2012 under people receiving ,,pension" was included “Old age Pensioners” and all other people in receiving ,,social package'' group.</t>
     </r>
+  </si>
+  <si>
+    <t>Share of persons receiving social package (%) in the population in Oni municipality</t>
   </si>
 </sst>
 </file>
@@ -209,14 +209,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -503,7 +503,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,23 +703,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>4.7033172403052488</v>
@@ -791,32 +791,32 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
